--- a/results/supplement/tables/table_S2.xlsx
+++ b/results/supplement/tables/table_S2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gene_groups" sheetId="1" state="visible" r:id="rId2"/>
@@ -2015,6 +2015,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2098,21 +2099,21 @@
   </sheetPr>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.68367346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="135.377551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="125.270408163265"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.0714285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.8571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="133.913265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="123.923469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.6224489795918"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8893,16 +8894,16 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.5765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8985,7 +8986,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
